--- a/tests/bin/OpenRefine_exports/2_PR1_17-18.xlsx
+++ b/tests/bin/OpenRefine_exports/2_PR1_17-18.xlsx
@@ -118,7 +118,7 @@
         </is>
       </c>
       <c r="E2" s="1" t="n">
-        <v>42917.208333333336</v>
+        <v>42917.0</v>
       </c>
       <c r="F2" t="n">
         <v>23931.0</v>
@@ -146,7 +146,7 @@
         </is>
       </c>
       <c r="E3" s="1" t="n">
-        <v>42948.208333333336</v>
+        <v>42948.0</v>
       </c>
       <c r="F3" t="n">
         <v>7054.0</v>
@@ -174,7 +174,7 @@
         </is>
       </c>
       <c r="E4" s="1" t="n">
-        <v>42979.208333333336</v>
+        <v>42979.0</v>
       </c>
       <c r="F4" t="n">
         <v>16031.0</v>
@@ -202,7 +202,7 @@
         </is>
       </c>
       <c r="E5" s="1" t="n">
-        <v>43009.208333333336</v>
+        <v>43009.0</v>
       </c>
       <c r="F5" t="n">
         <v>48833.0</v>
@@ -230,7 +230,7 @@
         </is>
       </c>
       <c r="E6" s="1" t="n">
-        <v>43040.208333333336</v>
+        <v>43040.0</v>
       </c>
       <c r="F6" t="n">
         <v>24270.0</v>
@@ -258,7 +258,7 @@
         </is>
       </c>
       <c r="E7" s="1" t="n">
-        <v>43070.208333333336</v>
+        <v>43070.0</v>
       </c>
       <c r="F7" t="n">
         <v>13726.0</v>
@@ -286,7 +286,7 @@
         </is>
       </c>
       <c r="E8" s="1" t="n">
-        <v>43101.208333333336</v>
+        <v>43101.0</v>
       </c>
       <c r="F8" t="n">
         <v>13562.0</v>
@@ -314,7 +314,7 @@
         </is>
       </c>
       <c r="E9" s="1" t="n">
-        <v>43132.208333333336</v>
+        <v>43132.0</v>
       </c>
       <c r="F9" t="n">
         <v>21233.0</v>
@@ -342,7 +342,7 @@
         </is>
       </c>
       <c r="E10" s="1" t="n">
-        <v>43160.208333333336</v>
+        <v>43160.0</v>
       </c>
       <c r="F10" t="n">
         <v>25792.0</v>
@@ -370,7 +370,7 @@
         </is>
       </c>
       <c r="E11" s="1" t="n">
-        <v>43191.208333333336</v>
+        <v>43191.0</v>
       </c>
       <c r="F11" t="n">
         <v>18994.0</v>
@@ -398,7 +398,7 @@
         </is>
       </c>
       <c r="E12" s="1" t="n">
-        <v>43221.208333333336</v>
+        <v>43221.0</v>
       </c>
       <c r="F12" t="n">
         <v>9116.0</v>
@@ -426,7 +426,7 @@
         </is>
       </c>
       <c r="E13" s="1" t="n">
-        <v>43252.208333333336</v>
+        <v>43252.0</v>
       </c>
       <c r="F13" t="n">
         <v>14796.0</v>
@@ -454,7 +454,7 @@
         </is>
       </c>
       <c r="E14" s="1" t="n">
-        <v>42917.208333333336</v>
+        <v>42917.0</v>
       </c>
       <c r="F14" t="n">
         <v>15780.0</v>
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="E15" s="1" t="n">
-        <v>42948.208333333336</v>
+        <v>42948.0</v>
       </c>
       <c r="F15" t="n">
         <v>66236.0</v>
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="E16" s="1" t="n">
-        <v>42979.208333333336</v>
+        <v>42979.0</v>
       </c>
       <c r="F16" t="n">
         <v>27536.0</v>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="E17" s="1" t="n">
-        <v>43009.208333333336</v>
+        <v>43009.0</v>
       </c>
       <c r="F17" t="n">
         <v>21873.0</v>
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="E18" s="1" t="n">
-        <v>43040.208333333336</v>
+        <v>43040.0</v>
       </c>
       <c r="F18" t="n">
         <v>17613.0</v>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="E19" s="1" t="n">
-        <v>43070.208333333336</v>
+        <v>43070.0</v>
       </c>
       <c r="F19" t="n">
         <v>8625.0</v>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="E20" s="1" t="n">
-        <v>43101.208333333336</v>
+        <v>43101.0</v>
       </c>
       <c r="F20" t="n">
         <v>13076.0</v>
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="E21" s="1" t="n">
-        <v>43132.208333333336</v>
+        <v>43132.0</v>
       </c>
       <c r="F21" t="n">
         <v>14073.0</v>
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="E22" s="1" t="n">
-        <v>43160.208333333336</v>
+        <v>43160.0</v>
       </c>
       <c r="F22" t="n">
         <v>21435.0</v>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="E23" s="1" t="n">
-        <v>43191.208333333336</v>
+        <v>43191.0</v>
       </c>
       <c r="F23" t="n">
         <v>16496.0</v>
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="E24" s="1" t="n">
-        <v>43221.208333333336</v>
+        <v>43221.0</v>
       </c>
       <c r="F24" t="n">
         <v>24140.0</v>
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="E25" s="1" t="n">
-        <v>43252.208333333336</v>
+        <v>43252.0</v>
       </c>
       <c r="F25" t="n">
         <v>32286.0</v>
@@ -790,7 +790,7 @@
         </is>
       </c>
       <c r="E26" s="1" t="n">
-        <v>42917.208333333336</v>
+        <v>42917.0</v>
       </c>
       <c r="F26" t="n">
         <v>13851.0</v>
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="E27" s="1" t="n">
-        <v>42948.208333333336</v>
+        <v>42948.0</v>
       </c>
       <c r="F27" t="n">
         <v>65161.0</v>
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E28" s="1" t="n">
-        <v>42979.208333333336</v>
+        <v>42979.0</v>
       </c>
       <c r="F28" t="n">
         <v>25172.0</v>
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="E29" s="1" t="n">
-        <v>43009.208333333336</v>
+        <v>43009.0</v>
       </c>
       <c r="F29" t="n">
         <v>18693.0</v>
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="E30" s="1" t="n">
-        <v>43040.208333333336</v>
+        <v>43040.0</v>
       </c>
       <c r="F30" t="n">
         <v>16035.0</v>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="E31" s="1" t="n">
-        <v>43070.208333333336</v>
+        <v>43070.0</v>
       </c>
       <c r="F31" t="n">
         <v>6010.0</v>
@@ -958,7 +958,7 @@
         </is>
       </c>
       <c r="E32" s="1" t="n">
-        <v>43101.208333333336</v>
+        <v>43101.0</v>
       </c>
       <c r="F32" t="n">
         <v>11036.0</v>
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="E33" s="1" t="n">
-        <v>43132.208333333336</v>
+        <v>43132.0</v>
       </c>
       <c r="F33" t="n">
         <v>11226.0</v>
@@ -1014,7 +1014,7 @@
         </is>
       </c>
       <c r="E34" s="1" t="n">
-        <v>43160.208333333336</v>
+        <v>43160.0</v>
       </c>
       <c r="F34" t="n">
         <v>16758.0</v>
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="E35" s="1" t="n">
-        <v>43191.208333333336</v>
+        <v>43191.0</v>
       </c>
       <c r="F35" t="n">
         <v>19182.0</v>
@@ -1070,7 +1070,7 @@
         </is>
       </c>
       <c r="E36" s="1" t="n">
-        <v>43221.208333333336</v>
+        <v>43221.0</v>
       </c>
       <c r="F36" t="n">
         <v>20613.0</v>
@@ -1098,7 +1098,7 @@
         </is>
       </c>
       <c r="E37" s="1" t="n">
-        <v>43252.208333333336</v>
+        <v>43252.0</v>
       </c>
       <c r="F37" t="n">
         <v>36132.0</v>
